--- a/Output Table/MasterTable.xlsx
+++ b/Output Table/MasterTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="645" yWindow="1185" windowWidth="24960" windowHeight="14745" tabRatio="500"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
   <si>
     <t>Item</t>
   </si>
@@ -149,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -184,7 +184,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -361,7 +361,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B49"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -611,15 +611,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -795,10 +795,26 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>24</v>
       </c>
-      <c r="B49" t="s">
-        <v>11</v>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Output Table/MasterTable.xlsx
+++ b/Output Table/MasterTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="12">
   <si>
     <t>Item</t>
   </si>
@@ -361,7 +361,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -619,15 +619,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -811,10 +811,26 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>25</v>
       </c>
-      <c r="B51" t="s">
-        <v>10</v>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
